--- a/F22_estado_hojas.xlsx
+++ b/F22_estado_hojas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
   <si>
     <t>barrio</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Inst. Edu. Jorge Éliecer Gaitan</t>
+  </si>
+  <si>
+    <t>institucion</t>
+  </si>
+  <si>
+    <t>corredor</t>
   </si>
 </sst>
 </file>
@@ -2174,7 +2180,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2482,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
